--- a/manual_fixes_pombase/allele_cannot_fix.xlsx
+++ b/manual_fixes_pombase/allele_cannot_fix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/allele_qc/manual_fixes_pombase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96D0944-2FA1-1940-ABD5-232116FC10F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33186E7-E08D-5444-BCF6-97C93E1D9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="25040" windowHeight="14420" xr2:uid="{1CD96D0D-EF95-4347-8CEF-0F0E0E511B79}"/>
+    <workbookView xWindow="34020" yWindow="-2120" windowWidth="30300" windowHeight="20940" xr2:uid="{1CD96D0D-EF95-4347-8CEF-0F0E0E511B79}"/>
   </bookViews>
   <sheets>
     <sheet name="identified" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4885" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4928" uniqueCount="2564">
   <si>
     <t>systematic_id</t>
   </si>
@@ -6841,9 +6841,6 @@
     <t>T8A,T21A,T26A,T29A,T123A,S126A</t>
   </si>
   <si>
-    <t>L461</t>
-  </si>
-  <si>
     <t>E329K</t>
   </si>
   <si>
@@ -6919,12 +6916,6 @@
     <t>G273D</t>
   </si>
   <si>
-    <t>C59,C62</t>
-  </si>
-  <si>
-    <t>C59</t>
-  </si>
-  <si>
     <t>manual_fix_allele_name</t>
   </si>
   <si>
@@ -6958,21 +6949,6 @@
     <t>G71V,R536*</t>
   </si>
   <si>
-    <t>R764C</t>
-  </si>
-  <si>
-    <t>N558I</t>
-  </si>
-  <si>
-    <t>A586V</t>
-  </si>
-  <si>
-    <t>E731D</t>
-  </si>
-  <si>
-    <t>E325K</t>
-  </si>
-  <si>
     <t>R1071*</t>
   </si>
   <si>
@@ -7198,15 +7174,9 @@
     <t>uaf2-E68A,E71A,D74A</t>
   </si>
   <si>
-    <t>E68A,E71A,D74A,ED78AA</t>
-  </si>
-  <si>
     <t>uaf2-E68A,E71A,D74A,ED78AA</t>
   </si>
   <si>
-    <t>RD177AA</t>
-  </si>
-  <si>
     <t>uaf2-RD177AA</t>
   </si>
   <si>
@@ -7243,9 +7213,6 @@
     <t>N129D</t>
   </si>
   <si>
-    <t>Y28A|I31A</t>
-  </si>
-  <si>
     <t>184-244</t>
   </si>
   <si>
@@ -7279,66 +7246,27 @@
     <t>R136Q,R137Q</t>
   </si>
   <si>
-    <t>D127A,D129E</t>
-  </si>
-  <si>
     <t>cut2-EA2</t>
   </si>
   <si>
-    <t>81-156,D127A,D129E</t>
-  </si>
-  <si>
     <t>L114P</t>
   </si>
   <si>
     <t>With sequence from https://www.ncbi.nlm.nih.gov/pmc/articles/PMC302011/</t>
   </si>
   <si>
-    <t>S930T</t>
-  </si>
-  <si>
-    <t>S930A</t>
-  </si>
-  <si>
-    <t>H929Q</t>
-  </si>
-  <si>
-    <t>G928A</t>
-  </si>
-  <si>
-    <t>G927A</t>
-  </si>
-  <si>
     <t>shifting coordinates to find GGHS, since they are all consecutive</t>
   </si>
   <si>
-    <t>S26-GVPK,Q27*</t>
-  </si>
-  <si>
     <t>W168A,W169A</t>
   </si>
   <si>
-    <t>Only consecutive W</t>
-  </si>
-  <si>
-    <t>V237,F239</t>
-  </si>
-  <si>
-    <t>COnsecutive VF close by</t>
-  </si>
-  <si>
     <t>D59V,E61V,D62V,64-275</t>
   </si>
   <si>
-    <t>V237A</t>
-  </si>
-  <si>
     <t>P182A</t>
   </si>
   <si>
-    <t>F239A</t>
-  </si>
-  <si>
     <t>S141A,S151A,S154A,S155A</t>
   </si>
   <si>
@@ -7348,9 +7276,6 @@
     <t>F303S</t>
   </si>
   <si>
-    <t>F303S-E368K</t>
-  </si>
-  <si>
     <t>Figures rightly labelled, text wrong</t>
   </si>
   <si>
@@ -7558,15 +7483,9 @@
     <t>https://link.springer.com/article/10.1007/s007750050361</t>
   </si>
   <si>
-    <t>D71A</t>
-  </si>
-  <si>
     <t>F644A,I645V</t>
   </si>
   <si>
-    <t>K238R</t>
-  </si>
-  <si>
     <t>sid2-K238R</t>
   </si>
   <si>
@@ -7685,13 +7604,166 @@
   </si>
   <si>
     <t>change_description_to</t>
+  </si>
+  <si>
+    <t>pxl1-9D-(Cdk1-phosphomimetic)</t>
+  </si>
+  <si>
+    <t>S3D,S24D,S31D,T55D,T64D,S67D,S97D,S136D,T214D</t>
+  </si>
+  <si>
+    <t>pop2-N241</t>
+  </si>
+  <si>
+    <t>pop2-N344</t>
+  </si>
+  <si>
+    <t>242-703</t>
+  </si>
+  <si>
+    <t>345-703</t>
+  </si>
+  <si>
+    <t>klp5-del</t>
+  </si>
+  <si>
+    <t>short deletion with a frameshift at codon 772, resulting in a different 772–814 C-terminus</t>
+  </si>
+  <si>
+    <t>D118A,C189S</t>
+  </si>
+  <si>
+    <t>G12V,C189S</t>
+  </si>
+  <si>
+    <t>Y28A,I31A</t>
+  </si>
+  <si>
+    <t>R758C</t>
+  </si>
+  <si>
+    <t>N552I</t>
+  </si>
+  <si>
+    <t>A580V</t>
+  </si>
+  <si>
+    <t>E725D</t>
+  </si>
+  <si>
+    <t>E319K</t>
+  </si>
+  <si>
+    <t>76-151,D122A,E124A</t>
+  </si>
+  <si>
+    <t>G913A</t>
+  </si>
+  <si>
+    <t>G914A</t>
+  </si>
+  <si>
+    <t>H915Q</t>
+  </si>
+  <si>
+    <t>S916A</t>
+  </si>
+  <si>
+    <t>S916T</t>
+  </si>
+  <si>
+    <t>D122A,E124A</t>
+  </si>
+  <si>
+    <t>D90A</t>
+  </si>
+  <si>
+    <t>V91E</t>
+  </si>
+  <si>
+    <t>hrk1-V91E</t>
+  </si>
+  <si>
+    <t>F303S,E368K</t>
+  </si>
+  <si>
+    <t>K237R</t>
+  </si>
+  <si>
+    <t>pombase typo + one-shift error, the reference sequence they cite is from https://pubmed.ncbi.nlm.nih.gov/9649519/</t>
+  </si>
+  <si>
+    <t>934-1230</t>
+  </si>
+  <si>
+    <t>675-1230</t>
+  </si>
+  <si>
+    <t>Using coordinate complement(3348569..3352396) from revision 8403</t>
+  </si>
+  <si>
+    <t>26-GVPK,Q27*</t>
+  </si>
+  <si>
+    <t>A134E</t>
+  </si>
+  <si>
+    <t>51-255</t>
+  </si>
+  <si>
+    <t>They seem to have used complement(join(374683..375830,376094..376446,376844..376931,376993..377164)), from pre-svn folder 2011-03-24</t>
+  </si>
+  <si>
+    <t>R1093G</t>
+  </si>
+  <si>
+    <t>Coordinates from https://pubmed.ncbi.nlm.nih.gov/10581178/</t>
+  </si>
+  <si>
+    <t>L461A</t>
+  </si>
+  <si>
+    <t>E68A,E71A,D74A,ED-78-AA</t>
+  </si>
+  <si>
+    <t>RD-177-AA</t>
+  </si>
+  <si>
+    <t>C59S</t>
+  </si>
+  <si>
+    <t>C59S,C62S</t>
+  </si>
+  <si>
+    <t>F237A</t>
+  </si>
+  <si>
+    <t>V235A,F237A</t>
+  </si>
+  <si>
+    <t>Used old coordinates 588765..591194</t>
+  </si>
+  <si>
+    <t>V235A</t>
+  </si>
+  <si>
+    <t>Y14H,I17T,D24E,L41H,F81S,L144Q</t>
+  </si>
+  <si>
+    <t>211-248</t>
+  </si>
+  <si>
+    <t>H506A</t>
+  </si>
+  <si>
+    <t>G677E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7789,6 +7861,12 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -7876,7 +7954,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -7917,6 +7995,13 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
@@ -8244,8 +8329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D01E91-6EC0-A840-8F42-8EB098335027}">
   <dimension ref="A1:V456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="N335" workbookViewId="0">
+      <selection activeCell="S360" sqref="S360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8313,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>2539</v>
+        <v>2512</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>13</v>
@@ -8328,16 +8413,16 @@
         <v>16</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>2537</v>
+        <v>2510</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>2538</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -8420,7 +8505,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="13" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="T3" s="18"/>
       <c r="U3" s="19"/>
@@ -8466,7 +8551,7 @@
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="13" t="s">
-        <v>2463</v>
+        <v>2438</v>
       </c>
       <c r="T4" s="18"/>
       <c r="U4" s="19"/>
@@ -8512,7 +8597,7 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="13" t="s">
-        <v>2532</v>
+        <v>2505</v>
       </c>
       <c r="T5" s="18"/>
       <c r="U5" s="19"/>
@@ -8558,12 +8643,12 @@
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="13" t="s">
-        <v>45</v>
+        <v>2521</v>
       </c>
       <c r="T6" s="18"/>
       <c r="U6" s="19"/>
       <c r="V6" s="18" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8606,12 +8691,12 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="13" t="s">
-        <v>52</v>
+        <v>2522</v>
       </c>
       <c r="T7" s="18"/>
       <c r="U7" s="19"/>
       <c r="V7" s="18" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8654,7 +8739,7 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="13" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="T8" s="18"/>
       <c r="U8" s="17"/>
@@ -8788,7 +8873,7 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="13" t="s">
-        <v>2391</v>
+        <v>2381</v>
       </c>
       <c r="T11" s="18"/>
       <c r="U11" s="19"/>
@@ -8834,7 +8919,7 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="13" t="s">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="T12" s="18"/>
       <c r="U12" s="19"/>
@@ -8882,12 +8967,12 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="13" t="s">
-        <v>2486</v>
+        <v>2461</v>
       </c>
       <c r="T13" s="18"/>
       <c r="U13" s="19"/>
       <c r="V13" s="18" t="s">
-        <v>2487</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8932,12 +9017,12 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="13" t="s">
-        <v>2489</v>
+        <v>2464</v>
       </c>
       <c r="T14" s="18"/>
       <c r="U14" s="19"/>
       <c r="V14" s="18" t="s">
-        <v>2487</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8982,7 +9067,7 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="13" t="s">
-        <v>2488</v>
+        <v>2463</v>
       </c>
       <c r="T15" s="18"/>
       <c r="U15" s="20" t="s">
@@ -9030,7 +9115,7 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="13" t="s">
-        <v>2490</v>
+        <v>2465</v>
       </c>
       <c r="T16" s="18"/>
       <c r="U16" s="20" t="s">
@@ -9120,7 +9205,7 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="13" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="T18" s="18"/>
       <c r="U18" s="19"/>
@@ -9166,7 +9251,7 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="13" t="s">
-        <v>2392</v>
+        <v>2523</v>
       </c>
       <c r="T19" s="18"/>
       <c r="U19" s="19"/>
@@ -9208,7 +9293,7 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="13" t="s">
-        <v>2393</v>
+        <v>2382</v>
       </c>
       <c r="T20" s="18"/>
       <c r="U20" s="19"/>
@@ -9298,10 +9383,10 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="13" t="s">
-        <v>2394</v>
+        <v>2383</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>2396</v>
+        <v>2385</v>
       </c>
       <c r="U22" s="19"/>
       <c r="V22" s="18"/>
@@ -9346,10 +9431,10 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="13" t="s">
-        <v>2395</v>
+        <v>2384</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>2397</v>
+        <v>2386</v>
       </c>
       <c r="U23" s="19"/>
       <c r="V23" s="18"/>
@@ -9393,8 +9478,8 @@
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
-      <c r="S24" s="21" t="s">
-        <v>2297</v>
+      <c r="S24" t="s">
+        <v>2524</v>
       </c>
       <c r="T24" s="22"/>
       <c r="U24" s="15" t="s">
@@ -9441,8 +9526,8 @@
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
-      <c r="S25" s="21" t="s">
-        <v>2298</v>
+      <c r="S25" t="s">
+        <v>2525</v>
       </c>
       <c r="T25" s="22"/>
       <c r="U25" s="15" t="s">
@@ -9489,8 +9574,8 @@
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
-      <c r="S26" s="21" t="s">
-        <v>2299</v>
+      <c r="S26" t="s">
+        <v>2526</v>
       </c>
       <c r="T26" s="22"/>
       <c r="U26" s="15" t="s">
@@ -9537,8 +9622,8 @@
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="21" t="s">
-        <v>2300</v>
+      <c r="S27" t="s">
+        <v>2527</v>
       </c>
       <c r="T27" s="22"/>
       <c r="U27" s="15" t="s">
@@ -9585,8 +9670,8 @@
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
-      <c r="S28" s="21" t="s">
-        <v>2301</v>
+      <c r="S28" t="s">
+        <v>2528</v>
       </c>
       <c r="T28" s="22"/>
       <c r="U28" s="15" t="s">
@@ -9714,7 +9799,7 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
       <c r="S31" s="13" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="T31" s="18"/>
       <c r="U31" s="19"/>
@@ -9760,10 +9845,10 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="13" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
       <c r="U32" s="19"/>
       <c r="V32" s="18"/>
@@ -9810,55 +9895,47 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="13" t="s">
-        <v>2491</v>
+        <v>2466</v>
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="19"/>
       <c r="V33" s="18"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12" t="s">
+      <c r="I34" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="12" t="s">
+      <c r="N34" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="7"/>
+      <c r="S34" s="39" t="s">
+        <v>2315</v>
+      </c>
+      <c r="U34" s="40"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
@@ -10124,7 +10201,7 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="T40" s="24"/>
       <c r="U40" s="25"/>
@@ -10170,7 +10247,7 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="T41" s="24"/>
       <c r="U41" s="25"/>
@@ -10216,7 +10293,7 @@
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="T42" s="24"/>
       <c r="U42" s="25"/>
@@ -10264,7 +10341,7 @@
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
       <c r="S43" s="13" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="T43" s="18"/>
       <c r="U43" s="19"/>
@@ -10350,7 +10427,7 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
       <c r="S45" s="13" t="s">
-        <v>2492</v>
+        <v>2467</v>
       </c>
       <c r="T45" s="18"/>
       <c r="U45" s="19"/>
@@ -10598,7 +10675,7 @@
       <c r="Q51" s="18"/>
       <c r="R51" s="18"/>
       <c r="S51" s="13" t="s">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="T51" s="18"/>
       <c r="U51" s="19"/>
@@ -10644,12 +10721,12 @@
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
       <c r="S52" s="13" t="s">
-        <v>2494</v>
+        <v>2469</v>
       </c>
       <c r="T52" s="18"/>
       <c r="U52" s="19"/>
       <c r="V52" s="18" t="s">
-        <v>2495</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="53" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10692,12 +10769,12 @@
       <c r="Q53" s="18"/>
       <c r="R53" s="18"/>
       <c r="S53" s="13" t="s">
-        <v>2497</v>
+        <v>2536</v>
       </c>
       <c r="T53" s="18"/>
       <c r="U53" s="19"/>
       <c r="V53" s="18" t="s">
-        <v>2496</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="54" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10740,7 +10817,7 @@
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
       <c r="S54" s="13" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="T54" s="18"/>
       <c r="U54" s="17" t="s">
@@ -10878,7 +10955,7 @@
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="13" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="T57" s="18"/>
       <c r="U57" s="17"/>
@@ -10924,10 +11001,12 @@
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
       <c r="S58" s="13" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T58" s="18"/>
-      <c r="U58" s="17"/>
+      <c r="U58" s="17" t="s">
+        <v>1524</v>
+      </c>
       <c r="V58" s="18"/>
     </row>
     <row r="59" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10970,10 +11049,12 @@
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
       <c r="S59" s="13" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="T59" s="18"/>
-      <c r="U59" s="17"/>
+      <c r="U59" s="17" t="s">
+        <v>1524</v>
+      </c>
       <c r="V59" s="18"/>
     </row>
     <row r="60" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11016,14 +11097,14 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="13" t="s">
-        <v>328</v>
+        <v>2537</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>330</v>
+        <v>2538</v>
       </c>
       <c r="U60" s="19"/>
       <c r="V60" s="18" t="s">
-        <v>2493</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="61" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11062,7 +11143,7 @@
       <c r="Q61" s="18"/>
       <c r="R61" s="18"/>
       <c r="S61" s="13" t="s">
-        <v>2402</v>
+        <v>2391</v>
       </c>
       <c r="T61" s="18"/>
       <c r="U61" s="19"/>
@@ -11108,12 +11189,12 @@
       <c r="Q62" s="18"/>
       <c r="R62" s="18"/>
       <c r="S62" s="13" t="s">
-        <v>2426</v>
+        <v>2402</v>
       </c>
       <c r="T62" s="18"/>
       <c r="U62" s="19"/>
       <c r="V62" s="18" t="s">
-        <v>2428</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="63" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11158,12 +11239,12 @@
       <c r="Q63" s="18"/>
       <c r="R63" s="18"/>
       <c r="S63" s="13" t="s">
-        <v>2427</v>
+        <v>2539</v>
       </c>
       <c r="T63" s="18"/>
       <c r="U63" s="19"/>
       <c r="V63" s="18" t="s">
-        <v>2428</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="64" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -11206,12 +11287,12 @@
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
       <c r="S64" s="26" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T64" s="27"/>
       <c r="U64" s="28"/>
       <c r="V64" s="27" t="s">
-        <v>2428</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -11422,7 +11503,7 @@
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
       <c r="S69" s="13" t="s">
-        <v>2357</v>
+        <v>2349</v>
       </c>
       <c r="T69" s="18"/>
       <c r="U69" s="19"/>
@@ -11468,14 +11549,14 @@
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
       <c r="S70" s="13" t="s">
-        <v>2499</v>
+        <v>2540</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>2500</v>
+        <v>2473</v>
       </c>
       <c r="U70" s="19"/>
       <c r="V70" s="18" t="s">
-        <v>2493</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="71" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11518,7 +11599,7 @@
       <c r="Q71" s="18"/>
       <c r="R71" s="18"/>
       <c r="S71" s="13" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="T71" s="18"/>
       <c r="U71" s="17"/>
@@ -11564,7 +11645,7 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="13" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="T72" s="18"/>
       <c r="U72" s="17"/>
@@ -11610,7 +11691,7 @@
       <c r="Q73" s="18"/>
       <c r="R73" s="18"/>
       <c r="S73" s="13" t="s">
-        <v>2520</v>
+        <v>2493</v>
       </c>
       <c r="T73" s="18"/>
       <c r="U73" s="17"/>
@@ -11698,7 +11779,7 @@
       <c r="Q75" s="30"/>
       <c r="R75" s="30"/>
       <c r="S75" s="29" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T75" s="30"/>
       <c r="U75" s="31"/>
@@ -11744,99 +11825,89 @@
       <c r="Q76" s="30"/>
       <c r="R76" s="30"/>
       <c r="S76" s="29" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T76" s="30"/>
       <c r="U76" s="31"/>
       <c r="V76" s="30"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="12" t="s">
+      <c r="I77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="12" t="s">
+      <c r="N77" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="7"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="S77" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="U77" s="38"/>
+      <c r="V77" s="2" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="G78" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="12" t="s">
+      <c r="I78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="12" t="s">
+      <c r="N78" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="7"/>
+      <c r="S78" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="U78" s="38"/>
+      <c r="V78" s="2" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
@@ -11970,7 +12041,7 @@
       <c r="Q81" s="18"/>
       <c r="R81" s="18"/>
       <c r="S81" s="13" t="s">
-        <v>2498</v>
+        <v>2472</v>
       </c>
       <c r="T81" s="18"/>
       <c r="U81" s="19"/>
@@ -12012,10 +12083,12 @@
       <c r="Q82" s="18"/>
       <c r="R82" s="18"/>
       <c r="S82" s="13" t="s">
-        <v>2415</v>
+        <v>2545</v>
       </c>
       <c r="T82" s="18"/>
-      <c r="U82" s="19"/>
+      <c r="U82" s="41" t="s">
+        <v>1531</v>
+      </c>
       <c r="V82" s="18"/>
     </row>
     <row r="83" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -12058,7 +12131,7 @@
       <c r="Q83" s="24"/>
       <c r="R83" s="24"/>
       <c r="S83" s="23" t="s">
-        <v>2365</v>
+        <v>2357</v>
       </c>
       <c r="T83" s="24"/>
       <c r="U83" s="25"/>
@@ -12104,7 +12177,7 @@
       <c r="Q84" s="18"/>
       <c r="R84" s="18"/>
       <c r="S84" s="13" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="T84" s="18"/>
       <c r="U84" s="19"/>
@@ -12150,7 +12223,7 @@
       <c r="Q85" s="18"/>
       <c r="R85" s="18"/>
       <c r="S85" s="13" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="T85" s="18"/>
       <c r="U85" s="19"/>
@@ -12196,7 +12269,7 @@
       <c r="Q86" s="18"/>
       <c r="R86" s="18"/>
       <c r="S86" s="13" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="T86" s="18"/>
       <c r="U86" s="19"/>
@@ -12241,7 +12314,9 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="13"/>
+      <c r="S87" s="13" t="s">
+        <v>2546</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="17"/>
       <c r="V87" s="7"/>
@@ -12326,13 +12401,15 @@
       <c r="Q89" s="18"/>
       <c r="R89" s="18"/>
       <c r="S89" s="13" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="T89" s="18"/>
-      <c r="U89" s="17"/>
+      <c r="U89" s="17" t="s">
+        <v>1524</v>
+      </c>
       <c r="V89" s="18"/>
     </row>
-    <row r="90" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>486</v>
       </c>
@@ -12372,13 +12449,13 @@
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
       <c r="S90" s="32" t="s">
-        <v>2479</v>
+        <v>2454</v>
       </c>
       <c r="T90" s="24"/>
       <c r="U90" s="25"/>
       <c r="V90" s="24"/>
     </row>
-    <row r="91" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>486</v>
       </c>
@@ -12418,13 +12495,13 @@
       <c r="Q91" s="24"/>
       <c r="R91" s="24"/>
       <c r="S91" s="32" t="s">
-        <v>2479</v>
+        <v>2454</v>
       </c>
       <c r="T91" s="24"/>
       <c r="U91" s="25"/>
       <c r="V91" s="24"/>
     </row>
-    <row r="92" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>486</v>
       </c>
@@ -12464,7 +12541,7 @@
       <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
       <c r="S92" s="32" t="s">
-        <v>2479</v>
+        <v>2454</v>
       </c>
       <c r="T92" s="24"/>
       <c r="U92" s="25"/>
@@ -12510,7 +12587,7 @@
       <c r="Q93" s="18"/>
       <c r="R93" s="18"/>
       <c r="S93" s="13" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
       <c r="T93" s="18"/>
       <c r="U93" s="19"/>
@@ -12556,7 +12633,7 @@
       <c r="Q94" s="18"/>
       <c r="R94" s="18"/>
       <c r="S94" s="13" t="s">
-        <v>2339</v>
+        <v>2331</v>
       </c>
       <c r="T94" s="18"/>
       <c r="U94" s="19"/>
@@ -12602,7 +12679,7 @@
       <c r="Q95" s="18"/>
       <c r="R95" s="18"/>
       <c r="S95" s="13" t="s">
-        <v>2340</v>
+        <v>2332</v>
       </c>
       <c r="T95" s="18"/>
       <c r="U95" s="19"/>
@@ -12648,7 +12725,7 @@
       <c r="Q96" s="18"/>
       <c r="R96" s="18"/>
       <c r="S96" s="13" t="s">
-        <v>2341</v>
+        <v>2333</v>
       </c>
       <c r="T96" s="18"/>
       <c r="U96" s="19"/>
@@ -12694,7 +12771,7 @@
       <c r="Q97" s="18"/>
       <c r="R97" s="18"/>
       <c r="S97" s="13" t="s">
-        <v>2358</v>
+        <v>2350</v>
       </c>
       <c r="T97" s="18"/>
       <c r="U97" s="19"/>
@@ -12784,10 +12861,12 @@
       <c r="Q99" s="18"/>
       <c r="R99" s="18"/>
       <c r="S99" s="13" t="s">
-        <v>2462</v>
+        <v>2437</v>
       </c>
       <c r="T99" s="18"/>
-      <c r="U99" s="19"/>
+      <c r="U99" s="41" t="s">
+        <v>451</v>
+      </c>
       <c r="V99" s="18"/>
     </row>
     <row r="100" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12829,8 +12908,8 @@
       <c r="P100" s="18"/>
       <c r="Q100" s="18"/>
       <c r="R100" s="18"/>
-      <c r="S100" s="18" t="s">
-        <v>1531</v>
+      <c r="S100" s="7" t="s">
+        <v>2431</v>
       </c>
       <c r="T100" s="18"/>
       <c r="U100" s="19"/>
@@ -12875,8 +12954,8 @@
       <c r="P101" s="18"/>
       <c r="Q101" s="18"/>
       <c r="R101" s="18"/>
-      <c r="S101" s="13" t="s">
-        <v>1531</v>
+      <c r="S101" s="8" t="s">
+        <v>2425</v>
       </c>
       <c r="T101" s="18"/>
       <c r="U101" s="19"/>
@@ -12921,8 +13000,8 @@
       <c r="P102" s="18"/>
       <c r="Q102" s="18"/>
       <c r="R102" s="18"/>
-      <c r="S102" s="13" t="s">
-        <v>1531</v>
+      <c r="S102" s="8" t="s">
+        <v>2426</v>
       </c>
       <c r="T102" s="18"/>
       <c r="U102" s="19"/>
@@ -12968,7 +13047,7 @@
       <c r="Q103" s="18"/>
       <c r="R103" s="18"/>
       <c r="S103" s="13" t="s">
-        <v>2461</v>
+        <v>2436</v>
       </c>
       <c r="T103" s="18"/>
       <c r="U103" s="19"/>
@@ -13148,7 +13227,7 @@
       <c r="Q107" s="18"/>
       <c r="R107" s="18"/>
       <c r="S107" s="13" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="T107" s="18"/>
       <c r="U107" s="17" t="s">
@@ -13196,12 +13275,12 @@
       <c r="Q108" s="18"/>
       <c r="R108" s="18"/>
       <c r="S108" s="13" t="s">
-        <v>2429</v>
+        <v>2404</v>
       </c>
       <c r="T108" s="18"/>
       <c r="U108" s="19"/>
       <c r="V108" s="18" t="s">
-        <v>2430</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="109" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13244,7 +13323,7 @@
       <c r="Q109" s="18"/>
       <c r="R109" s="18"/>
       <c r="S109" s="13" t="s">
-        <v>2361</v>
+        <v>2353</v>
       </c>
       <c r="T109" s="18"/>
       <c r="U109" s="19"/>
@@ -13290,7 +13369,7 @@
       <c r="Q110" s="18"/>
       <c r="R110" s="18"/>
       <c r="S110" s="13" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="T110" s="18"/>
       <c r="U110" s="19"/>
@@ -13336,93 +13415,80 @@
       <c r="U111" s="17"/>
       <c r="V111" s="7"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
+    <row r="112" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="39" t="s">
         <v>597</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="39" t="s">
         <v>599</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="12" t="s">
+      <c r="F112" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G112" s="12" t="s">
+      <c r="G112" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="H112" s="12" t="s">
+      <c r="H112" s="39" t="s">
         <v>597</v>
       </c>
-      <c r="I112" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J112" s="7"/>
-      <c r="K112" s="12" t="s">
+      <c r="I112" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="12" t="s">
+      <c r="N112" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="17"/>
-      <c r="V112" s="7"/>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
+      <c r="S112" s="39" t="s">
+        <v>2315</v>
+      </c>
+      <c r="U112" s="40"/>
+    </row>
+    <row r="113" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="12" t="s">
+      <c r="F113" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G113" s="12" t="s">
+      <c r="G113" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="H113" s="12" t="s">
+      <c r="H113" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="I113" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J113" s="7"/>
-      <c r="K113" s="12" t="s">
+      <c r="I113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="12" t="s">
+      <c r="N113" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="13"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="17"/>
-      <c r="V113" s="7"/>
+      <c r="S113" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="U113" s="38"/>
+      <c r="V113" s="2" t="s">
+        <v>2548</v>
+      </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
@@ -13648,179 +13714,144 @@
       <c r="Q118" s="30"/>
       <c r="R118" s="30"/>
       <c r="S118" s="29" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T118" s="30"/>
       <c r="U118" s="31"/>
       <c r="V118" s="30"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="43" t="s">
         <v>639</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="43" t="s">
         <v>640</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="43" t="s">
         <v>641</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="43" t="s">
         <v>642</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="12" t="s">
+      <c r="F119" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="G119" s="43" t="s">
         <v>643</v>
       </c>
-      <c r="H119" s="12" t="s">
+      <c r="H119" s="43" t="s">
         <v>640</v>
       </c>
-      <c r="I119" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119" s="7"/>
-      <c r="K119" s="12" t="s">
+      <c r="I119" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="12" t="s">
+      <c r="N119" s="43" t="s">
         <v>644</v>
       </c>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="13"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="17"/>
-      <c r="V119" s="7"/>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+      <c r="S119" s="43" t="s">
+        <v>2304</v>
+      </c>
+      <c r="U119" s="44"/>
+    </row>
+    <row r="120" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="12" t="s">
+      <c r="F120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G120" s="12" t="s">
+      <c r="G120" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="H120" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="I120" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J120" s="7"/>
-      <c r="K120" s="12" t="s">
+      <c r="I120" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="12" t="s">
+      <c r="N120" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="13"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="7"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
+      <c r="S120" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="U120" s="38"/>
+      <c r="V120" s="2" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="12" t="s">
+      <c r="F121" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G121" s="12" t="s">
+      <c r="G121" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="I121" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="12" t="s">
+      <c r="I121" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="13"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="7"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
+      <c r="S121" s="42" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="12" t="s">
+      <c r="F122" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G122" s="12" t="s">
+      <c r="G122" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="12" t="s">
+      <c r="I122" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L122" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="13"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="17"/>
-      <c r="V122" s="7"/>
+      <c r="S122" s="42" t="s">
+        <v>2357</v>
+      </c>
     </row>
     <row r="123" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -13862,12 +13893,12 @@
       <c r="Q123" s="18"/>
       <c r="R123" s="18"/>
       <c r="S123" s="13" t="s">
-        <v>2501</v>
+        <v>2474</v>
       </c>
       <c r="T123" s="18"/>
       <c r="U123" s="19"/>
       <c r="V123" s="18" t="s">
-        <v>2493</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.2">
@@ -14034,7 +14065,7 @@
       <c r="Q127" s="18"/>
       <c r="R127" s="18"/>
       <c r="S127" s="13" t="s">
-        <v>2478</v>
+        <v>2453</v>
       </c>
       <c r="T127" s="18"/>
       <c r="U127" s="19"/>
@@ -14082,12 +14113,12 @@
       <c r="Q128" s="18"/>
       <c r="R128" s="18"/>
       <c r="S128" s="13" t="s">
-        <v>2502</v>
+        <v>2475</v>
       </c>
       <c r="T128" s="18"/>
       <c r="U128" s="19"/>
       <c r="V128" s="18" t="s">
-        <v>2503</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="129" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -14128,7 +14159,7 @@
       <c r="S129" s="21"/>
       <c r="T129" s="22"/>
       <c r="U129" s="33" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
       <c r="V129" s="22"/>
     </row>
@@ -14170,7 +14201,7 @@
       <c r="S130" s="21"/>
       <c r="T130" s="22"/>
       <c r="U130" s="33" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
       <c r="V130" s="22"/>
     </row>
@@ -14212,7 +14243,7 @@
       <c r="S131" s="21"/>
       <c r="T131" s="22"/>
       <c r="U131" s="33" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
       <c r="V131" s="22"/>
     </row>
@@ -14256,7 +14287,7 @@
       <c r="Q132" s="18"/>
       <c r="R132" s="18"/>
       <c r="S132" s="13" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="T132" s="18"/>
       <c r="U132" s="17"/>
@@ -14302,11 +14333,13 @@
       <c r="Q133" s="18"/>
       <c r="R133" s="18"/>
       <c r="S133" s="13" t="s">
-        <v>2258</v>
+        <v>2551</v>
       </c>
       <c r="T133" s="18"/>
       <c r="U133" s="17"/>
-      <c r="V133" s="18"/>
+      <c r="V133" s="18" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="134" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
@@ -14348,7 +14381,7 @@
       <c r="Q134" s="18"/>
       <c r="R134" s="18"/>
       <c r="S134" s="13" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="T134" s="18"/>
       <c r="U134" s="19"/>
@@ -14482,14 +14515,14 @@
       <c r="Q137" s="18"/>
       <c r="R137" s="18"/>
       <c r="S137" s="13" t="s">
-        <v>2504</v>
+        <v>2477</v>
       </c>
       <c r="T137" s="13" t="s">
-        <v>2505</v>
+        <v>2478</v>
       </c>
       <c r="U137" s="19"/>
       <c r="V137" s="18" t="s">
-        <v>2493</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="138" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14532,7 +14565,7 @@
       <c r="Q138" s="18"/>
       <c r="R138" s="18"/>
       <c r="S138" s="13" t="s">
-        <v>2506</v>
+        <v>2479</v>
       </c>
       <c r="T138" s="13" t="s">
         <v>733</v>
@@ -14576,12 +14609,12 @@
       <c r="Q139" s="18"/>
       <c r="R139" s="18"/>
       <c r="S139" s="13" t="s">
-        <v>2507</v>
+        <v>2480</v>
       </c>
       <c r="T139" s="18"/>
       <c r="U139" s="19"/>
       <c r="V139" s="18" t="s">
-        <v>2493</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="140" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14624,12 +14657,12 @@
       <c r="Q140" s="18"/>
       <c r="R140" s="18"/>
       <c r="S140" s="13" t="s">
-        <v>2407</v>
+        <v>2394</v>
       </c>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
       <c r="V140" s="19" t="s">
-        <v>2408</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="141" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14672,7 +14705,7 @@
       <c r="Q141" s="18"/>
       <c r="R141" s="18"/>
       <c r="S141" s="13" t="s">
-        <v>2508</v>
+        <v>2481</v>
       </c>
       <c r="T141" s="18"/>
       <c r="U141" s="19"/>
@@ -14718,12 +14751,12 @@
       <c r="Q142" s="18"/>
       <c r="R142" s="18"/>
       <c r="S142" s="13" t="s">
-        <v>2413</v>
+        <v>2530</v>
       </c>
       <c r="T142" s="18"/>
       <c r="U142" s="19"/>
       <c r="V142" s="18" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="143" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14766,12 +14799,12 @@
       <c r="Q143" s="18"/>
       <c r="R143" s="18"/>
       <c r="S143" s="13" t="s">
-        <v>2412</v>
+        <v>2531</v>
       </c>
       <c r="T143" s="18"/>
       <c r="U143" s="19"/>
       <c r="V143" s="18" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="144" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14814,12 +14847,12 @@
       <c r="Q144" s="18"/>
       <c r="R144" s="18"/>
       <c r="S144" s="13" t="s">
-        <v>2411</v>
+        <v>2532</v>
       </c>
       <c r="T144" s="18"/>
       <c r="U144" s="19"/>
       <c r="V144" s="18" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="145" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14862,12 +14895,12 @@
       <c r="Q145" s="18"/>
       <c r="R145" s="18"/>
       <c r="S145" s="13" t="s">
-        <v>2410</v>
+        <v>2533</v>
       </c>
       <c r="T145" s="18"/>
       <c r="U145" s="19"/>
       <c r="V145" s="18" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="146" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14910,12 +14943,12 @@
       <c r="Q146" s="18"/>
       <c r="R146" s="18"/>
       <c r="S146" s="13" t="s">
-        <v>2409</v>
+        <v>2534</v>
       </c>
       <c r="T146" s="18"/>
       <c r="U146" s="19"/>
       <c r="V146" s="18" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
@@ -15005,7 +15038,7 @@
         <v>941</v>
       </c>
       <c r="T148" s="13" t="s">
-        <v>2372</v>
+        <v>2364</v>
       </c>
       <c r="U148" s="19"/>
       <c r="V148" s="18"/>
@@ -15050,10 +15083,10 @@
       <c r="Q149" s="18"/>
       <c r="R149" s="18"/>
       <c r="S149" s="13" t="s">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="T149" s="13" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
       <c r="U149" s="19"/>
       <c r="V149" s="18"/>
@@ -15098,10 +15131,10 @@
       <c r="Q150" s="18"/>
       <c r="R150" s="18"/>
       <c r="S150" s="13" t="s">
-        <v>2375</v>
+        <v>2367</v>
       </c>
       <c r="T150" s="13" t="s">
-        <v>2376</v>
+        <v>2368</v>
       </c>
       <c r="U150" s="19"/>
       <c r="V150" s="18"/>
@@ -15148,10 +15181,10 @@
       <c r="Q151" s="18"/>
       <c r="R151" s="18"/>
       <c r="S151" s="13" t="s">
-        <v>2377</v>
+        <v>2552</v>
       </c>
       <c r="T151" s="13" t="s">
-        <v>2378</v>
+        <v>2369</v>
       </c>
       <c r="U151" s="19"/>
       <c r="V151" s="18"/>
@@ -15198,10 +15231,10 @@
       <c r="Q152" s="18"/>
       <c r="R152" s="18"/>
       <c r="S152" s="13" t="s">
-        <v>2379</v>
+        <v>2553</v>
       </c>
       <c r="T152" s="13" t="s">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="U152" s="19"/>
       <c r="V152" s="18"/>
@@ -15246,10 +15279,10 @@
       <c r="Q153" s="18"/>
       <c r="R153" s="18"/>
       <c r="S153" s="13" t="s">
-        <v>2381</v>
+        <v>2371</v>
       </c>
       <c r="T153" s="13" t="s">
-        <v>2384</v>
+        <v>2374</v>
       </c>
       <c r="U153" s="19"/>
       <c r="V153" s="18"/>
@@ -15294,10 +15327,10 @@
       <c r="Q154" s="18"/>
       <c r="R154" s="18"/>
       <c r="S154" s="13" t="s">
-        <v>2382</v>
+        <v>2372</v>
       </c>
       <c r="T154" s="13" t="s">
-        <v>2385</v>
+        <v>2375</v>
       </c>
       <c r="U154" s="19"/>
       <c r="V154" s="18"/>
@@ -15342,10 +15375,10 @@
       <c r="Q155" s="18"/>
       <c r="R155" s="18"/>
       <c r="S155" s="13" t="s">
-        <v>2383</v>
+        <v>2373</v>
       </c>
       <c r="T155" s="13" t="s">
-        <v>2386</v>
+        <v>2376</v>
       </c>
       <c r="U155" s="19"/>
       <c r="V155" s="18"/>
@@ -15390,7 +15423,7 @@
       <c r="Q156" s="18"/>
       <c r="R156" s="18"/>
       <c r="S156" s="13" t="s">
-        <v>2387</v>
+        <v>2377</v>
       </c>
       <c r="T156" s="18"/>
       <c r="U156" s="19"/>
@@ -15568,9 +15601,11 @@
       <c r="Q160" s="18"/>
       <c r="R160" s="18"/>
       <c r="S160" s="13" t="s">
-        <v>2268</v>
-      </c>
-      <c r="T160" s="18"/>
+        <v>2267</v>
+      </c>
+      <c r="T160" s="18" t="s">
+        <v>1524</v>
+      </c>
       <c r="U160" s="17"/>
       <c r="V160" s="18"/>
     </row>
@@ -15930,7 +15965,7 @@
       <c r="Q168" s="18"/>
       <c r="R168" s="18"/>
       <c r="S168" s="13" t="s">
-        <v>2403</v>
+        <v>2392</v>
       </c>
       <c r="T168" s="18"/>
       <c r="U168" s="19"/>
@@ -16444,7 +16479,7 @@
       <c r="Q180" s="18"/>
       <c r="R180" s="18"/>
       <c r="S180" s="13" t="s">
-        <v>2336</v>
+        <v>2328</v>
       </c>
       <c r="T180" s="18"/>
       <c r="U180" s="19"/>
@@ -16490,7 +16525,7 @@
       <c r="Q181" s="18"/>
       <c r="R181" s="18"/>
       <c r="S181" s="13" t="s">
-        <v>2337</v>
+        <v>2329</v>
       </c>
       <c r="T181" s="18"/>
       <c r="U181" s="19"/>
@@ -16538,7 +16573,7 @@
       <c r="Q182" s="18"/>
       <c r="R182" s="18"/>
       <c r="S182" s="13" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="T182" s="18"/>
       <c r="U182" s="19"/>
@@ -16580,7 +16615,7 @@
       <c r="Q183" s="18"/>
       <c r="R183" s="18"/>
       <c r="S183" s="13" t="s">
-        <v>2420</v>
+        <v>2398</v>
       </c>
       <c r="T183" s="18"/>
       <c r="U183" s="19"/>
@@ -16626,7 +16661,7 @@
       <c r="Q184" s="27"/>
       <c r="R184" s="27"/>
       <c r="S184" s="26" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T184" s="27"/>
       <c r="U184" s="28"/>
@@ -16672,7 +16707,7 @@
       <c r="Q185" s="18"/>
       <c r="R185" s="18"/>
       <c r="S185" s="13" t="s">
-        <v>2285</v>
+        <v>2554</v>
       </c>
       <c r="T185" s="18"/>
       <c r="U185" s="17"/>
@@ -16718,7 +16753,7 @@
       <c r="Q186" s="18"/>
       <c r="R186" s="18"/>
       <c r="S186" s="13" t="s">
-        <v>2284</v>
+        <v>2555</v>
       </c>
       <c r="T186" s="18"/>
       <c r="U186" s="17"/>
@@ -16764,7 +16799,7 @@
       <c r="Q187" s="27"/>
       <c r="R187" s="27"/>
       <c r="S187" s="26" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T187" s="27"/>
       <c r="U187" s="28"/>
@@ -16810,10 +16845,10 @@
       <c r="Q188" s="18"/>
       <c r="R188" s="18"/>
       <c r="S188" s="13" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="T188" s="13" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="U188" s="19"/>
       <c r="V188" s="18"/>
@@ -16858,10 +16893,10 @@
       <c r="Q189" s="18"/>
       <c r="R189" s="18"/>
       <c r="S189" s="13" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="T189" s="13" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="U189" s="19"/>
       <c r="V189" s="18"/>
@@ -16902,7 +16937,7 @@
       <c r="Q190" s="18"/>
       <c r="R190" s="18"/>
       <c r="S190" s="13" t="s">
-        <v>2406</v>
+        <v>2529</v>
       </c>
       <c r="T190" s="18"/>
       <c r="U190" s="19"/>
@@ -16948,7 +16983,7 @@
       <c r="Q191" s="18"/>
       <c r="R191" s="18"/>
       <c r="S191" s="13" t="s">
-        <v>2359</v>
+        <v>2351</v>
       </c>
       <c r="T191" s="18"/>
       <c r="U191" s="19"/>
@@ -16996,7 +17031,7 @@
       <c r="Q192" s="18"/>
       <c r="R192" s="18"/>
       <c r="S192" s="13" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="T192" s="18"/>
       <c r="U192" s="19"/>
@@ -17042,7 +17077,7 @@
       <c r="Q193" s="18"/>
       <c r="R193" s="18"/>
       <c r="S193" s="13" t="s">
-        <v>2360</v>
+        <v>2352</v>
       </c>
       <c r="T193" s="18"/>
       <c r="U193" s="19"/>
@@ -17088,12 +17123,12 @@
       <c r="Q194" s="24"/>
       <c r="R194" s="24"/>
       <c r="S194" s="23" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="T194" s="24"/>
       <c r="U194" s="25"/>
       <c r="V194" s="24" t="s">
-        <v>2531</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="195" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -17136,7 +17171,7 @@
       <c r="Q195" s="22"/>
       <c r="R195" s="22"/>
       <c r="S195" s="21" t="s">
-        <v>2365</v>
+        <v>2357</v>
       </c>
       <c r="T195" s="22"/>
       <c r="U195" s="33"/>
@@ -17277,7 +17312,7 @@
       <c r="T198" s="18"/>
       <c r="U198" s="19"/>
       <c r="V198" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17325,7 +17360,7 @@
       <c r="T199" s="18"/>
       <c r="U199" s="19"/>
       <c r="V199" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="200" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17373,7 +17408,7 @@
       <c r="T200" s="18"/>
       <c r="U200" s="19"/>
       <c r="V200" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="201" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17421,7 +17456,7 @@
       <c r="T201" s="18"/>
       <c r="U201" s="19"/>
       <c r="V201" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="202" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17469,7 +17504,7 @@
       <c r="T202" s="18"/>
       <c r="U202" s="19"/>
       <c r="V202" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="203" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17517,7 +17552,7 @@
       <c r="T203" s="18"/>
       <c r="U203" s="19"/>
       <c r="V203" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="204" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17565,7 +17600,7 @@
       <c r="T204" s="18"/>
       <c r="U204" s="19"/>
       <c r="V204" s="18" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="205" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17608,7 +17643,7 @@
       <c r="Q205" s="18"/>
       <c r="R205" s="18"/>
       <c r="S205" s="13" t="s">
-        <v>2389</v>
+        <v>2379</v>
       </c>
       <c r="T205" s="18"/>
       <c r="U205" s="19"/>
@@ -17742,12 +17777,12 @@
       <c r="Q208" s="24"/>
       <c r="R208" s="24"/>
       <c r="S208" s="23" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="T208" s="24"/>
       <c r="U208" s="25"/>
       <c r="V208" s="24" t="s">
-        <v>2534</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -17790,7 +17825,7 @@
       <c r="Q209" s="24"/>
       <c r="R209" s="24"/>
       <c r="S209" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="T209" s="24"/>
       <c r="U209" s="25"/>
@@ -17836,11 +17871,13 @@
       <c r="Q210" s="18"/>
       <c r="R210" s="18"/>
       <c r="S210" s="13" t="s">
-        <v>2423</v>
+        <v>2556</v>
       </c>
       <c r="T210" s="18"/>
       <c r="U210" s="19"/>
-      <c r="V210" s="18"/>
+      <c r="V210" s="18" t="s">
+        <v>2558</v>
+      </c>
     </row>
     <row r="211" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
@@ -17882,11 +17919,13 @@
       <c r="Q211" s="18"/>
       <c r="R211" s="18"/>
       <c r="S211" s="13" t="s">
-        <v>2422</v>
+        <v>2399</v>
       </c>
       <c r="T211" s="18"/>
       <c r="U211" s="19"/>
-      <c r="V211" s="18"/>
+      <c r="V211" s="18" t="s">
+        <v>2558</v>
+      </c>
     </row>
     <row r="212" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
@@ -17928,12 +17967,12 @@
       <c r="Q212" s="18"/>
       <c r="R212" s="18"/>
       <c r="S212" s="13" t="s">
-        <v>2418</v>
+        <v>2557</v>
       </c>
       <c r="T212" s="18"/>
       <c r="U212" s="19"/>
       <c r="V212" s="18" t="s">
-        <v>2419</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="213" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17976,12 +18015,12 @@
       <c r="Q213" s="18"/>
       <c r="R213" s="18"/>
       <c r="S213" s="13" t="s">
-        <v>2416</v>
+        <v>2397</v>
       </c>
       <c r="T213" s="18"/>
       <c r="U213" s="19"/>
       <c r="V213" s="18" t="s">
-        <v>2417</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="214" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18024,11 +18063,13 @@
       <c r="Q214" s="18"/>
       <c r="R214" s="18"/>
       <c r="S214" s="13" t="s">
-        <v>2421</v>
+        <v>2559</v>
       </c>
       <c r="T214" s="18"/>
       <c r="U214" s="19"/>
-      <c r="V214" s="18"/>
+      <c r="V214" s="18" t="s">
+        <v>2558</v>
+      </c>
     </row>
     <row r="215" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
@@ -18070,10 +18111,10 @@
       <c r="Q215" s="18"/>
       <c r="R215" s="18"/>
       <c r="S215" s="13" t="s">
-        <v>2424</v>
+        <v>2400</v>
       </c>
       <c r="T215" s="13" t="s">
-        <v>2425</v>
+        <v>2401</v>
       </c>
       <c r="U215" s="19"/>
       <c r="V215" s="18"/>
@@ -18288,7 +18329,7 @@
       <c r="S220" s="13"/>
       <c r="T220" s="18"/>
       <c r="U220" s="19" t="s">
-        <v>2304</v>
+        <v>2296</v>
       </c>
       <c r="V220" s="18"/>
     </row>
@@ -18372,12 +18413,12 @@
       <c r="Q222" s="18"/>
       <c r="R222" s="18"/>
       <c r="S222" s="13" t="s">
-        <v>2523</v>
+        <v>2496</v>
       </c>
       <c r="T222" s="18"/>
       <c r="U222" s="19"/>
       <c r="V222" s="18" t="s">
-        <v>2526</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="223" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18420,12 +18461,12 @@
       <c r="Q223" s="18"/>
       <c r="R223" s="18"/>
       <c r="S223" s="13" t="s">
-        <v>2525</v>
+        <v>2498</v>
       </c>
       <c r="T223" s="18"/>
       <c r="U223" s="19"/>
       <c r="V223" s="18" t="s">
-        <v>2527</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18468,12 +18509,12 @@
       <c r="Q224" s="18"/>
       <c r="R224" s="18"/>
       <c r="S224" s="13" t="s">
-        <v>2524</v>
+        <v>2497</v>
       </c>
       <c r="T224" s="18"/>
       <c r="U224" s="19"/>
       <c r="V224" s="18" t="s">
-        <v>2528</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.2">
@@ -18872,7 +18913,7 @@
       <c r="Q234" s="18"/>
       <c r="R234" s="18"/>
       <c r="S234" s="13" t="s">
-        <v>2535</v>
+        <v>2508</v>
       </c>
       <c r="T234" s="18"/>
       <c r="U234" s="19"/>
@@ -18962,7 +19003,7 @@
       <c r="Q236" s="35"/>
       <c r="R236" s="35"/>
       <c r="S236" s="34" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T236" s="35"/>
       <c r="U236" s="36"/>
@@ -19008,7 +19049,7 @@
       <c r="Q237" s="35"/>
       <c r="R237" s="35"/>
       <c r="S237" s="34" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T237" s="35"/>
       <c r="U237" s="36"/>
@@ -19054,7 +19095,7 @@
       <c r="Q238" s="35"/>
       <c r="R238" s="35"/>
       <c r="S238" s="34" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T238" s="35"/>
       <c r="U238" s="36"/>
@@ -19102,7 +19143,7 @@
       <c r="Q239" s="18"/>
       <c r="R239" s="18"/>
       <c r="S239" s="13" t="s">
-        <v>2310</v>
+        <v>2302</v>
       </c>
       <c r="T239" s="18"/>
       <c r="U239" s="19"/>
@@ -19194,7 +19235,7 @@
       <c r="Q241" s="18"/>
       <c r="R241" s="18"/>
       <c r="S241" s="13" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="T241" s="18"/>
       <c r="U241" s="17"/>
@@ -19240,7 +19281,7 @@
       <c r="Q242" s="18"/>
       <c r="R242" s="18"/>
       <c r="S242" s="13" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="T242" s="18"/>
       <c r="U242" s="17"/>
@@ -19334,7 +19375,7 @@
       <c r="Q244" s="18"/>
       <c r="R244" s="18"/>
       <c r="S244" s="13" t="s">
-        <v>2509</v>
+        <v>2482</v>
       </c>
       <c r="T244" s="18"/>
       <c r="U244" s="19"/>
@@ -19914,7 +19955,7 @@
       <c r="Q258" s="18"/>
       <c r="R258" s="18"/>
       <c r="S258" s="13" t="s">
-        <v>2536</v>
+        <v>2509</v>
       </c>
       <c r="T258" s="18"/>
       <c r="U258" s="19"/>
@@ -19960,7 +20001,7 @@
       <c r="Q259" s="18"/>
       <c r="R259" s="18"/>
       <c r="S259" s="13" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="T259" s="18"/>
       <c r="U259" s="17"/>
@@ -20008,7 +20049,7 @@
       <c r="Q260" s="18"/>
       <c r="R260" s="18"/>
       <c r="S260" s="13" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="T260" s="18"/>
       <c r="U260" s="17"/>
@@ -20054,14 +20095,14 @@
       <c r="Q261" s="18"/>
       <c r="R261" s="18"/>
       <c r="S261" s="13" t="s">
-        <v>2510</v>
+        <v>2483</v>
       </c>
       <c r="T261" s="13" t="s">
-        <v>2511</v>
+        <v>2484</v>
       </c>
       <c r="U261" s="19"/>
       <c r="V261" s="18" t="s">
-        <v>2493</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.2">
@@ -20144,7 +20185,7 @@
       <c r="Q263" s="30"/>
       <c r="R263" s="30"/>
       <c r="S263" s="29" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T263" s="30"/>
       <c r="U263" s="31"/>
@@ -20190,7 +20231,7 @@
       <c r="Q264" s="18"/>
       <c r="R264" s="18"/>
       <c r="S264" s="13" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="T264" s="18"/>
       <c r="U264" s="19"/>
@@ -20232,7 +20273,7 @@
       <c r="Q265" s="17"/>
       <c r="R265" s="17"/>
       <c r="S265" s="15" t="s">
-        <v>2302</v>
+        <v>2294</v>
       </c>
       <c r="T265" s="17"/>
       <c r="U265" s="21" t="s">
@@ -20418,7 +20459,7 @@
       <c r="Q269" s="18"/>
       <c r="R269" s="18"/>
       <c r="S269" s="13" t="s">
-        <v>2480</v>
+        <v>2455</v>
       </c>
       <c r="T269" s="18"/>
       <c r="U269" s="19"/>
@@ -20464,12 +20505,12 @@
       <c r="Q270" s="18"/>
       <c r="R270" s="18"/>
       <c r="S270" s="13" t="s">
-        <v>2484</v>
+        <v>2459</v>
       </c>
       <c r="T270" s="18"/>
       <c r="U270" s="19"/>
       <c r="V270" s="18" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="271" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -20512,12 +20553,12 @@
       <c r="Q271" s="18"/>
       <c r="R271" s="18"/>
       <c r="S271" s="13" t="s">
-        <v>2483</v>
+        <v>2458</v>
       </c>
       <c r="T271" s="18"/>
       <c r="U271" s="19"/>
       <c r="V271" s="18" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="272" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -20560,12 +20601,12 @@
       <c r="Q272" s="18"/>
       <c r="R272" s="18"/>
       <c r="S272" s="13" t="s">
-        <v>2485</v>
+        <v>2460</v>
       </c>
       <c r="T272" s="18"/>
       <c r="U272" s="19"/>
       <c r="V272" s="18" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="273" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -20608,7 +20649,7 @@
       <c r="Q273" s="18"/>
       <c r="R273" s="18"/>
       <c r="S273" s="13" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="T273" s="18"/>
       <c r="U273" s="17"/>
@@ -21018,59 +21059,53 @@
       <c r="Q282" s="18"/>
       <c r="R282" s="18"/>
       <c r="S282" s="13" t="s">
-        <v>2512</v>
+        <v>2485</v>
       </c>
       <c r="T282" s="18"/>
       <c r="U282" s="19"/>
       <c r="V282" s="18"/>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A283" s="12" t="s">
+    <row r="283" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B283" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C283" s="12" t="s">
+      <c r="C283" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D283" s="12" t="s">
+      <c r="D283" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="E283" s="7"/>
-      <c r="F283" s="12" t="s">
+      <c r="F283" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G283" s="12" t="s">
+      <c r="G283" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="H283" s="12" t="s">
+      <c r="H283" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="I283" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J283" s="12" t="s">
+      <c r="I283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J283" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="K283" s="12" t="s">
+      <c r="K283" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="L283" s="7"/>
-      <c r="M283" s="7"/>
-      <c r="N283" s="12" t="s">
+      <c r="N283" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="O283" s="12" t="s">
+      <c r="O283" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="P283" s="7"/>
-      <c r="Q283" s="7"/>
-      <c r="R283" s="7"/>
-      <c r="S283" s="13"/>
-      <c r="T283" s="7"/>
-      <c r="U283" s="17"/>
-      <c r="V283" s="7"/>
+      <c r="S283" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="U283" s="38"/>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
@@ -21156,7 +21191,7 @@
       <c r="Q285" s="24"/>
       <c r="R285" s="24"/>
       <c r="S285" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="T285" s="24"/>
       <c r="U285" s="17"/>
@@ -21250,49 +21285,41 @@
       <c r="U287" s="17"/>
       <c r="V287" s="7"/>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A288" s="12" t="s">
+    <row r="288" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B288" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="C288" s="12" t="s">
+      <c r="C288" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="D288" s="12" t="s">
+      <c r="D288" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="E288" s="7"/>
-      <c r="F288" s="12" t="s">
+      <c r="F288" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G288" s="12" t="s">
+      <c r="G288" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="H288" s="12" t="s">
+      <c r="H288" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="I288" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J288" s="7"/>
-      <c r="K288" s="12" t="s">
+      <c r="I288" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K288" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L288" s="7"/>
-      <c r="M288" s="7"/>
-      <c r="N288" s="12" t="s">
+      <c r="N288" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="O288" s="7"/>
-      <c r="P288" s="7"/>
-      <c r="Q288" s="7"/>
-      <c r="R288" s="7"/>
-      <c r="S288" s="13"/>
-      <c r="T288" s="7"/>
-      <c r="U288" s="17"/>
-      <c r="V288" s="7"/>
+      <c r="S288" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="U288" s="38"/>
     </row>
     <row r="289" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
@@ -21334,7 +21361,7 @@
       <c r="Q289" s="18"/>
       <c r="R289" s="18"/>
       <c r="S289" s="18" t="s">
-        <v>2305</v>
+        <v>2297</v>
       </c>
       <c r="T289" s="18"/>
       <c r="U289" s="19"/>
@@ -21380,7 +21407,7 @@
       <c r="Q290" s="18"/>
       <c r="R290" s="18"/>
       <c r="S290" s="13" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="T290" s="18"/>
       <c r="U290" s="19"/>
@@ -21470,12 +21497,12 @@
       <c r="Q292" s="24"/>
       <c r="R292" s="24"/>
       <c r="S292" s="23" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="T292" s="24"/>
       <c r="U292" s="25"/>
       <c r="V292" s="24" t="s">
-        <v>2529</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="293" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -21518,12 +21545,12 @@
       <c r="Q293" s="24"/>
       <c r="R293" s="24"/>
       <c r="S293" s="23" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="T293" s="24"/>
       <c r="U293" s="25"/>
       <c r="V293" s="24" t="s">
-        <v>2529</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="294" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -21566,7 +21593,7 @@
       <c r="Q294" s="18"/>
       <c r="R294" s="18"/>
       <c r="S294" s="13" t="s">
-        <v>2513</v>
+        <v>2486</v>
       </c>
       <c r="T294" s="18"/>
       <c r="U294" s="19"/>
@@ -21612,7 +21639,7 @@
       <c r="Q295" s="18"/>
       <c r="R295" s="18"/>
       <c r="S295" s="13" t="s">
-        <v>2388</v>
+        <v>2378</v>
       </c>
       <c r="T295" s="18"/>
       <c r="U295" s="19"/>
@@ -21698,7 +21725,7 @@
       <c r="Q297" s="18"/>
       <c r="R297" s="18"/>
       <c r="S297" s="13" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="T297" s="18"/>
       <c r="U297" s="17"/>
@@ -21744,7 +21771,7 @@
       <c r="Q298" s="18"/>
       <c r="R298" s="18"/>
       <c r="S298" s="13" t="s">
-        <v>1494</v>
+        <v>2562</v>
       </c>
       <c r="T298" s="18"/>
       <c r="U298" s="17"/>
@@ -21790,7 +21817,7 @@
       <c r="Q299" s="18"/>
       <c r="R299" s="18"/>
       <c r="S299" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="T299" s="18"/>
       <c r="U299" s="17"/>
@@ -21836,7 +21863,7 @@
       <c r="Q300" s="18"/>
       <c r="R300" s="18"/>
       <c r="S300" s="13" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="T300" s="18"/>
       <c r="U300" s="17"/>
@@ -21882,7 +21909,7 @@
       <c r="Q301" s="18"/>
       <c r="R301" s="18"/>
       <c r="S301" s="13" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="T301" s="18"/>
       <c r="U301" s="17"/>
@@ -21928,7 +21955,7 @@
       <c r="Q302" s="18"/>
       <c r="R302" s="18"/>
       <c r="S302" s="13" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="T302" s="18"/>
       <c r="U302" s="17"/>
@@ -22020,10 +22047,12 @@
       <c r="Q304" s="22"/>
       <c r="R304" s="22"/>
       <c r="S304" s="21" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="T304" s="22"/>
-      <c r="U304" s="17"/>
+      <c r="U304" s="21" t="s">
+        <v>1524</v>
+      </c>
       <c r="V304" s="22"/>
     </row>
     <row r="305" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -22070,10 +22099,12 @@
       <c r="Q305" s="22"/>
       <c r="R305" s="22"/>
       <c r="S305" s="21" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="T305" s="22"/>
-      <c r="U305" s="17"/>
+      <c r="U305" s="17" t="s">
+        <v>1531</v>
+      </c>
       <c r="V305" s="22"/>
     </row>
     <row r="306" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -22310,7 +22341,7 @@
       <c r="Q310" s="30"/>
       <c r="R310" s="30"/>
       <c r="S310" s="29" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="T310" s="30"/>
       <c r="U310" s="31"/>
@@ -22440,7 +22471,7 @@
       <c r="Q313" s="18"/>
       <c r="R313" s="18"/>
       <c r="S313" s="13" t="s">
-        <v>2514</v>
+        <v>2487</v>
       </c>
       <c r="T313" s="18"/>
       <c r="U313" s="19"/>
@@ -22492,52 +22523,43 @@
       <c r="U314" s="17"/>
       <c r="V314" s="22"/>
     </row>
-    <row r="315" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="23" t="s">
+    <row r="315" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="B315" s="23" t="s">
+      <c r="B315" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="C315" s="23" t="s">
+      <c r="C315" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="D315" s="23" t="s">
+      <c r="D315" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="E315" s="24"/>
-      <c r="F315" s="23" t="s">
+      <c r="F315" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G315" s="23" t="s">
+      <c r="G315" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="H315" s="23" t="s">
+      <c r="H315" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="I315" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J315" s="24"/>
-      <c r="K315" s="23" t="s">
+      <c r="I315" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K315" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L315" s="24"/>
-      <c r="M315" s="24"/>
-      <c r="N315" s="23" t="s">
+      <c r="N315" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="O315" s="24"/>
-      <c r="P315" s="24"/>
-      <c r="Q315" s="24"/>
-      <c r="R315" s="24"/>
-      <c r="S315" s="23" t="s">
-        <v>2365</v>
-      </c>
-      <c r="T315" s="24"/>
-      <c r="U315" s="25"/>
-      <c r="V315" s="24" t="s">
-        <v>2530</v>
+      <c r="S315" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="U315" s="38"/>
+      <c r="V315" s="2" t="s">
+        <v>2503</v>
       </c>
     </row>
     <row r="316" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22580,7 +22602,7 @@
       <c r="Q316" s="18"/>
       <c r="R316" s="18"/>
       <c r="S316" s="13" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
       <c r="T316" s="18"/>
       <c r="U316" s="19"/>
@@ -22722,10 +22744,12 @@
       <c r="Q319" s="18"/>
       <c r="R319" s="18"/>
       <c r="S319" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="T319" s="18"/>
-      <c r="U319" s="17"/>
+      <c r="U319" s="21" t="s">
+        <v>1524</v>
+      </c>
       <c r="V319" s="18"/>
     </row>
     <row r="320" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22768,10 +22792,10 @@
       <c r="Q320" s="18"/>
       <c r="R320" s="18"/>
       <c r="S320" s="13" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="T320" s="18" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
       <c r="U320" s="17"/>
       <c r="V320" s="18"/>
@@ -22816,12 +22840,12 @@
       <c r="Q321" s="18"/>
       <c r="R321" s="18"/>
       <c r="S321" s="13" t="s">
-        <v>2472</v>
+        <v>2447</v>
       </c>
       <c r="T321" s="18"/>
       <c r="U321" s="19"/>
       <c r="V321" s="18" t="s">
-        <v>2477</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="322" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22864,12 +22888,12 @@
       <c r="Q322" s="18"/>
       <c r="R322" s="18"/>
       <c r="S322" s="13" t="s">
-        <v>2473</v>
+        <v>2448</v>
       </c>
       <c r="T322" s="18"/>
       <c r="U322" s="19"/>
       <c r="V322" s="18" t="s">
-        <v>2477</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="323" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22912,12 +22936,12 @@
       <c r="Q323" s="18"/>
       <c r="R323" s="18"/>
       <c r="S323" s="13" t="s">
-        <v>2474</v>
+        <v>2449</v>
       </c>
       <c r="T323" s="18"/>
       <c r="U323" s="19"/>
       <c r="V323" s="18" t="s">
-        <v>2477</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="324" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22960,12 +22984,12 @@
       <c r="Q324" s="18"/>
       <c r="R324" s="18"/>
       <c r="S324" s="13" t="s">
-        <v>2475</v>
+        <v>2450</v>
       </c>
       <c r="T324" s="18"/>
       <c r="U324" s="19"/>
       <c r="V324" s="18" t="s">
-        <v>2477</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="325" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23010,12 +23034,12 @@
       <c r="Q325" s="18"/>
       <c r="R325" s="18"/>
       <c r="S325" s="13" t="s">
-        <v>2476</v>
+        <v>2451</v>
       </c>
       <c r="T325" s="18"/>
       <c r="U325" s="19"/>
       <c r="V325" s="18" t="s">
-        <v>2477</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="326" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23058,7 +23082,7 @@
       <c r="Q326" s="18"/>
       <c r="R326" s="18"/>
       <c r="S326" s="13" t="s">
-        <v>2471</v>
+        <v>2446</v>
       </c>
       <c r="T326" s="18"/>
       <c r="U326" s="19"/>
@@ -23106,10 +23130,10 @@
       <c r="S327" s="13"/>
       <c r="T327" s="18"/>
       <c r="U327" s="19" t="s">
-        <v>2364</v>
+        <v>2356</v>
       </c>
       <c r="V327" s="18" t="s">
-        <v>2362</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="328" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23154,10 +23178,10 @@
       <c r="S328" s="13"/>
       <c r="T328" s="18"/>
       <c r="U328" s="19" t="s">
-        <v>2363</v>
+        <v>2355</v>
       </c>
       <c r="V328" s="18" t="s">
-        <v>2362</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.2">
@@ -23236,7 +23260,7 @@
       <c r="Q330" s="17"/>
       <c r="R330" s="17"/>
       <c r="S330" s="15" t="s">
-        <v>2303</v>
+        <v>2295</v>
       </c>
       <c r="T330" s="17"/>
       <c r="U330" s="37" t="s">
@@ -23284,14 +23308,14 @@
       <c r="Q331" s="18"/>
       <c r="R331" s="18"/>
       <c r="S331" s="13" t="s">
-        <v>2516</v>
+        <v>2489</v>
       </c>
       <c r="T331" s="13" t="s">
-        <v>2515</v>
+        <v>2488</v>
       </c>
       <c r="U331" s="19"/>
       <c r="V331" s="18" t="s">
-        <v>2493</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.2">
@@ -23722,7 +23746,7 @@
       <c r="Q341" s="18"/>
       <c r="R341" s="18"/>
       <c r="S341" s="13" t="s">
-        <v>2354</v>
+        <v>2346</v>
       </c>
       <c r="T341" s="18"/>
       <c r="U341" s="19"/>
@@ -23768,7 +23792,7 @@
       <c r="Q342" s="18"/>
       <c r="R342" s="18"/>
       <c r="S342" s="13" t="s">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="T342" s="18"/>
       <c r="U342" s="19"/>
@@ -23814,7 +23838,7 @@
       <c r="Q343" s="18"/>
       <c r="R343" s="18"/>
       <c r="S343" s="13" t="s">
-        <v>2356</v>
+        <v>2348</v>
       </c>
       <c r="T343" s="18"/>
       <c r="U343" s="19"/>
@@ -23896,7 +23920,7 @@
       <c r="Q345" s="18"/>
       <c r="R345" s="18"/>
       <c r="S345" s="13" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="T345" s="18"/>
       <c r="U345" s="17"/>
@@ -23942,12 +23966,12 @@
       <c r="Q346" s="18"/>
       <c r="R346" s="18"/>
       <c r="S346" s="13" t="s">
-        <v>2533</v>
+        <v>2506</v>
       </c>
       <c r="T346" s="18"/>
       <c r="U346" s="19"/>
       <c r="V346" s="18" t="s">
-        <v>2487</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="347" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23990,7 +24014,7 @@
       <c r="Q347" s="18"/>
       <c r="R347" s="18"/>
       <c r="S347" s="13" t="s">
-        <v>2353</v>
+        <v>2345</v>
       </c>
       <c r="T347" s="18"/>
       <c r="U347" s="19"/>
@@ -24032,7 +24056,7 @@
       <c r="Q348" s="18"/>
       <c r="R348" s="18"/>
       <c r="S348" s="13" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="T348" s="18"/>
       <c r="U348" s="19"/>
@@ -24078,7 +24102,7 @@
       <c r="Q349" s="18"/>
       <c r="R349" s="18"/>
       <c r="S349" s="13" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="T349" s="18"/>
       <c r="U349" s="17"/>
@@ -24124,12 +24148,12 @@
       <c r="Q350" s="18"/>
       <c r="R350" s="18"/>
       <c r="S350" s="13" t="s">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="T350" s="18"/>
       <c r="U350" s="19"/>
       <c r="V350" s="18" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.2">
@@ -24218,12 +24242,12 @@
       <c r="Q352" s="18"/>
       <c r="R352" s="18"/>
       <c r="S352" s="13" t="s">
-        <v>2399</v>
+        <v>2388</v>
       </c>
       <c r="T352" s="18"/>
       <c r="U352" s="19"/>
       <c r="V352" s="18" t="s">
-        <v>2398</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.2">
@@ -24350,7 +24374,7 @@
       <c r="Q355" s="18"/>
       <c r="R355" s="18"/>
       <c r="S355" s="13" t="s">
-        <v>2467</v>
+        <v>2442</v>
       </c>
       <c r="T355" s="18"/>
       <c r="U355" s="19"/>
@@ -24396,7 +24420,7 @@
       <c r="Q356" s="18"/>
       <c r="R356" s="18"/>
       <c r="S356" s="13" t="s">
-        <v>2466</v>
+        <v>2441</v>
       </c>
       <c r="T356" s="18"/>
       <c r="U356" s="19"/>
@@ -24442,7 +24466,7 @@
       <c r="Q357" s="18"/>
       <c r="R357" s="18"/>
       <c r="S357" s="13" t="s">
-        <v>2465</v>
+        <v>2440</v>
       </c>
       <c r="T357" s="18"/>
       <c r="U357" s="19"/>
@@ -24483,10 +24507,12 @@
       <c r="P358" s="22"/>
       <c r="Q358" s="22"/>
       <c r="R358" s="22"/>
-      <c r="S358" s="21"/>
+      <c r="S358" s="33" t="s">
+        <v>2340</v>
+      </c>
       <c r="T358" s="22"/>
       <c r="U358" s="33" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
       <c r="V358" s="22"/>
     </row>
@@ -24525,9 +24551,13 @@
       <c r="P359" s="22"/>
       <c r="Q359" s="22"/>
       <c r="R359" s="22"/>
-      <c r="S359" s="21"/>
+      <c r="S359" s="33" t="s">
+        <v>2340</v>
+      </c>
       <c r="T359" s="22"/>
-      <c r="U359" s="33"/>
+      <c r="U359" s="33" t="s">
+        <v>2340</v>
+      </c>
       <c r="V359" s="22"/>
     </row>
     <row r="360" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -24572,10 +24602,10 @@
       <c r="Q360" s="18"/>
       <c r="R360" s="18"/>
       <c r="S360" s="13" t="s">
-        <v>2351</v>
+        <v>2343</v>
       </c>
       <c r="T360" s="13" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="U360" s="18"/>
       <c r="V360" s="18"/>
@@ -24622,10 +24652,10 @@
       <c r="Q361" s="18"/>
       <c r="R361" s="18"/>
       <c r="S361" s="13" t="s">
-        <v>2352</v>
+        <v>2344</v>
       </c>
       <c r="T361" s="13" t="s">
-        <v>2350</v>
+        <v>2342</v>
       </c>
       <c r="U361" s="18"/>
       <c r="V361" s="18"/>
@@ -24666,7 +24696,7 @@
       <c r="Q362" s="18"/>
       <c r="R362" s="18"/>
       <c r="S362" s="13" t="s">
-        <v>2517</v>
+        <v>2490</v>
       </c>
       <c r="T362" s="18"/>
       <c r="U362" s="19"/>
@@ -24712,7 +24742,7 @@
       <c r="Q363" s="18"/>
       <c r="R363" s="18"/>
       <c r="S363" s="13" t="s">
-        <v>2468</v>
+        <v>2443</v>
       </c>
       <c r="T363" s="18"/>
       <c r="U363" s="19"/>
@@ -24758,7 +24788,7 @@
       <c r="Q364" s="18"/>
       <c r="R364" s="18"/>
       <c r="S364" s="13" t="s">
-        <v>2469</v>
+        <v>2444</v>
       </c>
       <c r="T364" s="18"/>
       <c r="U364" s="19"/>
@@ -24850,7 +24880,7 @@
       <c r="Q366" s="18"/>
       <c r="R366" s="18"/>
       <c r="S366" s="13" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="T366" s="18"/>
       <c r="U366" s="17"/>
@@ -24896,7 +24926,7 @@
       <c r="Q367" s="18"/>
       <c r="R367" s="18"/>
       <c r="S367" s="13" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="T367" s="18"/>
       <c r="U367" s="17"/>
@@ -25170,12 +25200,12 @@
       <c r="Q373" s="18"/>
       <c r="R373" s="18"/>
       <c r="S373" s="13" t="s">
-        <v>2518</v>
+        <v>2491</v>
       </c>
       <c r="T373" s="18"/>
       <c r="U373" s="19"/>
       <c r="V373" s="18" t="s">
-        <v>2519</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.2">
@@ -28874,257 +28904,304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3C769F-4A95-764B-9459-4A83F92E8C6E}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.33203125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2510</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2261</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>2306</v>
+        <v>2298</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>2307</v>
+        <v>2299</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>2333</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>2335</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>2342</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>2343</v>
-      </c>
       <c r="B9" s="7" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>2344</v>
+        <v>2336</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>2400</v>
+        <v>2389</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>2405</v>
+        <v>2393</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>2431</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>2432</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>2433</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>2434</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>2435</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>2436</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>2440</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>2441</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>2443</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>2444</v>
+        <v>2419</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>2445</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>2470</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>2481</v>
+        <v>2456</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>2521</v>
+        <v>2494</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>2522</v>
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/manual_fixes_pombase/allele_cannot_fix.xlsx
+++ b/manual_fixes_pombase/allele_cannot_fix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/allele_qc/manual_fixes_pombase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53BE93C-E461-EA4A-A3F0-309624547474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D4458-EE12-B24D-AEEA-CC5E984CDB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{1CD96D0D-EF95-4347-8CEF-0F0E0E511B79}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" activeTab="1" xr2:uid="{1CD96D0D-EF95-4347-8CEF-0F0E0E511B79}"/>
   </bookViews>
   <sheets>
     <sheet name="identified" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="2566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="2592">
   <si>
     <t>systematic_id</t>
   </si>
@@ -7763,13 +7763,91 @@
   </si>
   <si>
     <t>sequence_error</t>
+  </si>
+  <si>
+    <t>rad23-1</t>
+  </si>
+  <si>
+    <t>Q232*</t>
+  </si>
+  <si>
+    <t>sre1-Q801*</t>
+  </si>
+  <si>
+    <t>sre1-Q802*</t>
+  </si>
+  <si>
+    <t>Q802*</t>
+  </si>
+  <si>
+    <t>dsc2-G160*</t>
+  </si>
+  <si>
+    <t>elf1-21</t>
+  </si>
+  <si>
+    <t>ssu72-1-86</t>
+  </si>
+  <si>
+    <t>spo3m (KC51)</t>
+  </si>
+  <si>
+    <t>pst1-1</t>
+  </si>
+  <si>
+    <t>lcf1-W376-&gt;stop</t>
+  </si>
+  <si>
+    <t>pdf1-K302Stop</t>
+  </si>
+  <si>
+    <t>dot2-439</t>
+  </si>
+  <si>
+    <t>atg7-m1</t>
+  </si>
+  <si>
+    <t>V160*</t>
+  </si>
+  <si>
+    <t>dsc2-V160*</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Q863*</t>
+  </si>
+  <si>
+    <t>W427*</t>
+  </si>
+  <si>
+    <t>W1305*</t>
+  </si>
+  <si>
+    <t>W367*</t>
+  </si>
+  <si>
+    <t>probably typo in paper</t>
+  </si>
+  <si>
+    <t>K321*</t>
+  </si>
+  <si>
+    <t>E33*</t>
+  </si>
+  <si>
+    <t>typo in main text of paper, correct in figure legend and image</t>
+  </si>
+  <si>
+    <t>W227*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7873,6 +7951,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -7960,7 +8044,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -8010,6 +8094,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
@@ -8337,8 +8422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D01E91-6EC0-A840-8F42-8EB098335027}">
   <dimension ref="A1:V456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28903,10 +28988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3C769F-4A95-764B-9459-4A83F92E8C6E}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28914,10 +28999,11 @@
     <col min="1" max="1" width="16.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.33203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="55.5" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -28927,8 +29013,14 @@
       <c r="C1" s="7" t="s">
         <v>2289</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>2259</v>
       </c>
@@ -28936,7 +29028,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2297</v>
       </c>
@@ -28944,7 +29036,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2298</v>
       </c>
@@ -28952,7 +29044,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>2310</v>
       </c>
@@ -28960,7 +29052,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>2323</v>
       </c>
@@ -28968,7 +29060,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>2324</v>
       </c>
@@ -28976,7 +29068,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>2333</v>
       </c>
@@ -28984,7 +29076,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>2334</v>
       </c>
@@ -28992,7 +29084,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>2335</v>
       </c>
@@ -29000,7 +29092,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>2384</v>
       </c>
@@ -29008,7 +29100,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>2388</v>
       </c>
@@ -29016,7 +29108,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>2400</v>
       </c>
@@ -29024,7 +29116,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>2401</v>
       </c>
@@ -29032,7 +29124,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>2402</v>
       </c>
@@ -29040,7 +29132,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>2403</v>
       </c>
@@ -29184,7 +29276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>2510</v>
       </c>
@@ -29192,7 +29284,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>2513</v>
       </c>
@@ -29201,6 +29293,121 @@
       </c>
       <c r="C34" s="7" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="47" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="47" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="47" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="47" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="47" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="47" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="47" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="47" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>2456</v>
       </c>
     </row>
   </sheetData>
